--- a/Clean_Data.xlsx
+++ b/Clean_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Company Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Processed Date</t>
+  </si>
+  <si>
     <t>slicedinvoices</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>reuters</t>
   </si>
   <si>
+    <t>myexample</t>
+  </si>
+  <si>
     <t>INV-3337</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>V-LT356648</t>
   </si>
   <si>
+    <t>INV-0013</t>
+  </si>
+  <si>
     <t>admin@slicedinvoices.com</t>
   </si>
   <si>
@@ -86,6 +95,12 @@
   </si>
   <si>
     <t>rauthers2@reuters.com</t>
+  </si>
+  <si>
+    <t>example@myexample.com</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
   </si>
 </sst>
 </file>
@@ -447,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,16 +484,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>42400</v>
@@ -486,16 +504,19 @@
       <c r="E2">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>30008</v>
@@ -503,16 +524,19 @@
       <c r="E3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>44799</v>
@@ -520,42 +544,51 @@
       <c r="E4">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>28046</v>
+        <v>44799</v>
       </c>
       <c r="E5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>31022</v>
+        <v>28046</v>
       </c>
       <c r="E6">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -563,30 +596,496 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>31022</v>
       </c>
       <c r="E7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
         <v>29579</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E25">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E26">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E27">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E28">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E29">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44817</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
